--- a/Datos/Anuario2024/080301_MercadosMunicipales.xlsx
+++ b/Datos/Anuario2024/080301_MercadosMunicipales.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12090" tabRatio="813"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="15" r:id="rId1"/>
+    <sheet name="1" sheetId="16" r:id="rId2"/>
+    <sheet name="2" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_1">#REF!</definedName>
@@ -109,84 +115,263 @@
     <definedName name="xcvbcxvx">#REF!</definedName>
     <definedName name="yyyty6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Algirós</t>
+  </si>
+  <si>
+    <t>Russafa</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Natzaret</t>
+  </si>
+  <si>
+    <t>Mossén Sorell</t>
+  </si>
+  <si>
+    <t>Benimàmet</t>
+  </si>
+  <si>
+    <t>Torrefiel</t>
+  </si>
+  <si>
+    <t>Rojas Clemente</t>
+  </si>
+  <si>
+    <t>Benimaclet</t>
+  </si>
+  <si>
+    <t>Castellar</t>
+  </si>
+  <si>
+    <t>Benicalap</t>
+  </si>
+  <si>
+    <t>Jesús-Patraix</t>
+  </si>
+  <si>
+    <t>Mont-Olivet</t>
+  </si>
+  <si>
+    <t>Castilla - Av Cid</t>
+  </si>
+  <si>
+    <t>el Cabanyal</t>
+  </si>
+  <si>
+    <t>el Grau</t>
+  </si>
+  <si>
+    <t>la Malva-rosa</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Número de paradas</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Domingos y Festivos</t>
+  </si>
+  <si>
+    <t>Navidad Reyes-Cabanyal</t>
+  </si>
+  <si>
+    <t>Rastro</t>
+  </si>
+  <si>
+    <t>Plaza Redonda</t>
+  </si>
+  <si>
+    <t>Fruta y verdura</t>
+  </si>
+  <si>
+    <t>Pescado y congelados</t>
+  </si>
+  <si>
+    <t>Otros comestibles</t>
+  </si>
+  <si>
+    <t>Otros productos</t>
+  </si>
+  <si>
+    <t>Número de Paradas</t>
+  </si>
+  <si>
+    <t>Av. del Cid</t>
+  </si>
+  <si>
+    <t>Carne y
+ pollo</t>
+  </si>
+  <si>
+    <t>3 a 6 de enero</t>
+  </si>
+  <si>
+    <t>Superficie</t>
+  </si>
+  <si>
+    <t>San Pedro Nolasco</t>
+  </si>
+  <si>
+    <t>Jerusalén</t>
+  </si>
+  <si>
+    <t>Sin epígrafe</t>
+  </si>
+  <si>
+    <t>10 de diciembre a 6 de enero</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Comercio y Abastecimiento. Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paseo Marítimo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Pedro Nolasco  (**) </t>
+  </si>
+  <si>
+    <t>Abiertos</t>
+  </si>
+  <si>
+    <t>Cerrados</t>
+  </si>
+  <si>
+    <t>MERCADOS MUNICIPALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navidad Reyes-Central </t>
+  </si>
+  <si>
+    <t>1 de junio a 30 de septiembre</t>
+  </si>
+  <si>
+    <t>Plaza del Cid (Redonda)</t>
+  </si>
+  <si>
+    <t>Benimàmet (*)</t>
+  </si>
+  <si>
+    <t>Nota: Datos de superficie en m². (*) Cerrado por falta de titulares. (**) Cerrado pendiente de rehabilitación.</t>
+  </si>
+  <si>
+    <t>1. Superficie y número de puestos en los mercados de distrito según tipo de producto. 2023</t>
+  </si>
+  <si>
+    <t>2. Número de puestos en los mercados extraordinarios y días. 2023</t>
+  </si>
+  <si>
+    <t>Vacíos</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -239,101 +424,102 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11" xfId="7"/>
+    <cellStyle name="Normal 15" xfId="6"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="5"/>
+    <cellStyle name="Normal 2_2.4" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 2_2.4" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="5"/>
-    <cellStyle name="Normal 15" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -402,7 +588,19 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FF2C7C7C"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -692,1200 +890,1017 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja34">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="32.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>MERCADOS MUNICIPALES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja35">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="1"/>
-    <col width="11.42578125" customWidth="1" style="2" min="2" max="2"/>
-    <col width="10.7109375" customWidth="1" style="2" min="3" max="9"/>
-    <col width="10.7109375" customWidth="1" min="10" max="10"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="9" width="10.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>1. Superficie y número de puestos en los mercados de distrito según tipo de producto. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="31" t="n"/>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="12" t="n"/>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="12" t="n"/>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customFormat="1" customHeight="1" s="3">
-      <c r="A3" s="19" t="n"/>
-      <c r="B3" s="22" t="n"/>
-      <c r="C3" s="33" t="inlineStr">
-        <is>
-          <t>Número de Paradas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="30" customFormat="1" customHeight="1" s="3">
-      <c r="A4" s="19" t="inlineStr">
-        <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="B4" s="20" t="inlineStr">
-        <is>
-          <t>Superficie</t>
-        </is>
-      </c>
-      <c r="C4" s="15" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t>Fruta y verdura</t>
-        </is>
-      </c>
-      <c r="E4" s="15" t="inlineStr">
-        <is>
-          <t>Carne y
- pollo</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t>Pescado y congelados</t>
-        </is>
-      </c>
-      <c r="G4" s="15" t="inlineStr">
-        <is>
-          <t>Otros comestibles</t>
-        </is>
-      </c>
-      <c r="H4" s="15" t="inlineStr">
-        <is>
-          <t>Otros productos</t>
-        </is>
-      </c>
-      <c r="I4" s="15" t="inlineStr">
-        <is>
-          <t>Sin epígrafe</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="inlineStr">
-        <is>
-          <t>Vacíos</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="27" t="inlineStr">
-        <is>
-          <t>Abiertos</t>
-        </is>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="25">
         <f>SUM(B6:B19)</f>
-        <v/>
+        <v>54469</v>
       </c>
       <c r="C5" s="25">
         <f>SUM(C6:C19)</f>
-        <v/>
+        <v>2668</v>
       </c>
       <c r="D5" s="25">
-        <f>SUM(D6:D19)</f>
-        <v/>
+        <f t="shared" ref="D5:H5" si="0">SUM(D6:D19)</f>
+        <v>619</v>
       </c>
       <c r="E5" s="25">
-        <f>SUM(E6:E19)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>569</v>
       </c>
       <c r="F5" s="25">
-        <f>SUM(F6:F19)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
       <c r="G5" s="25">
-        <f>SUM(G6:G19)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>886</v>
       </c>
       <c r="H5" s="25">
-        <f>SUM(H6:H19)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="I5" s="25">
-        <f>SUM(I6:I19)</f>
-        <v/>
+        <f t="shared" ref="I5:J5" si="1">SUM(I6:I19)</f>
+        <v>59</v>
       </c>
       <c r="J5" s="25">
-        <f>SUM(J6:J19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>Algirós</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="n">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11">
         <v>3387</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="11">
         <v>165</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="11">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="11">
         <v>45</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="11">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="11">
         <v>60</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="11">
         <v>11</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="11">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>2</v>
       </c>
-      <c r="K6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Castilla - Av Cid</t>
-        </is>
-      </c>
-      <c r="B7" s="9" t="n">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
         <v>8422</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="9">
         <v>50</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D7" s="9">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="n">
+      <c r="E7" s="9">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="9">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>6</v>
       </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>41</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
-        <is>
-          <t>Benicalap</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="n">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11">
         <v>6038</v>
       </c>
-      <c r="C8" s="11" t="n">
+      <c r="C8" s="11">
         <v>58</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="11">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>4</v>
       </c>
-      <c r="G8" s="11" t="n">
+      <c r="G8" s="11">
         <v>24</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="17">
         <v>13</v>
       </c>
-      <c r="I8" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17" t="n">
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
         <v>29</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>el Cabanyal</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
         <v>3585</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="9">
         <v>374</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D9" s="9">
         <v>147</v>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="9">
         <v>92</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>42</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="9">
         <v>78</v>
       </c>
-      <c r="H9" s="9" t="n">
+      <c r="H9" s="9">
         <v>14</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="9">
         <v>1</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>51</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="10" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="B10" s="11" t="n">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
         <v>16988</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="11">
         <v>1135</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>207</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="11">
         <v>231</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="11">
         <v>132</v>
       </c>
-      <c r="G10" s="11" t="n">
+      <c r="G10" s="11">
         <v>451</v>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="H10" s="11">
         <v>95</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="11">
         <v>19</v>
       </c>
-      <c r="J10" s="11" t="n">
+      <c r="J10" s="11">
         <v>78</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t>el Grau</t>
-        </is>
-      </c>
-      <c r="B11" s="16" t="n">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="16">
         <v>2838</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="16">
         <v>10</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="16" t="n">
+      <c r="G11" s="16">
         <v>4</v>
       </c>
-      <c r="H11" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16" t="n">
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
         <v>1</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
-        <is>
-          <t>Jerusalén</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="n">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="11">
         <v>880</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="11">
         <v>67</v>
       </c>
-      <c r="D12" s="11" t="n">
+      <c r="D12" s="11">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="n">
+      <c r="E12" s="11">
         <v>13</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="11">
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="n">
+      <c r="G12" s="11">
         <v>28</v>
       </c>
-      <c r="H12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17" t="n">
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t>Jesús-Patraix</t>
-        </is>
-      </c>
-      <c r="B13" s="9" t="n">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
         <v>786</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>68</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>13</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="9">
         <v>19</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>9</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>20</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="9">
         <v>7</v>
       </c>
-      <c r="I13" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
-        <is>
-          <t>Mossén Sorell</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="n">
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11">
         <v>910</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="n">
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
         <v>6</v>
       </c>
-      <c r="H14" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="n">
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
-      <c r="J14" s="17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>Natzaret</t>
-        </is>
-      </c>
-      <c r="B15" s="9" t="n">
+      <c r="J14" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9">
         <v>273</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="9">
         <v>26</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="9">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="9">
         <v>8</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="9">
         <v>3</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="9">
         <v>7</v>
       </c>
-      <c r="H15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="n">
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
-        <is>
-          <t>Plaza del Cid (Redonda)</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="n">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="11">
         <v>789</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="17">
         <v>32</v>
       </c>
-      <c r="D16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="n">
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11">
         <v>32</v>
       </c>
-      <c r="I16" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Rojas Clemente</t>
-        </is>
-      </c>
-      <c r="B17" s="9" t="n">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9">
         <v>2484</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="9">
         <v>41</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="9">
         <v>5</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="9">
         <v>6</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="9">
         <v>19</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="9">
         <v>5</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="9">
         <v>2</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
-        <is>
-          <t>Russafa</t>
-        </is>
-      </c>
-      <c r="B18" s="11" t="n">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11">
         <v>4755</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>578</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="11">
         <v>178</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="11">
         <v>106</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>52</v>
       </c>
-      <c r="G18" s="11" t="n">
+      <c r="G18" s="11">
         <v>168</v>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="H18" s="11">
         <v>63</v>
       </c>
-      <c r="I18" s="11" t="n">
+      <c r="I18" s="11">
         <v>11</v>
       </c>
-      <c r="J18" s="11" t="n">
+      <c r="J18" s="11">
         <v>75</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Torrefiel</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="9">
         <v>2334</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="9">
         <v>52</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="9">
         <v>7</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="9">
         <v>19</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="9">
         <v>2</v>
       </c>
-      <c r="G19" s="9" t="n">
+      <c r="G19" s="9">
         <v>9</v>
       </c>
-      <c r="H19" s="9" t="n">
+      <c r="H19" s="9">
         <v>14</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="9">
         <v>1</v>
       </c>
-      <c r="J19" s="9" t="n">
+      <c r="J19" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="28" t="inlineStr">
-        <is>
-          <t>Cerrados</t>
-        </is>
-      </c>
-      <c r="B20" s="26" t="n"/>
-      <c r="C20" s="29" t="n"/>
-      <c r="D20" s="29" t="n"/>
-      <c r="E20" s="29" t="n"/>
-      <c r="F20" s="29" t="n"/>
-      <c r="G20" s="29" t="n"/>
-      <c r="H20" s="26" t="n"/>
-      <c r="I20" s="26" t="n"/>
-      <c r="J20" s="26" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Benimàmet (*)</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="9">
         <v>216</v>
       </c>
-      <c r="C21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">San Pedro Nolasco  (**) </t>
-        </is>
-      </c>
-      <c r="B22" s="11" t="n">
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="11">
         <v>374</v>
       </c>
-      <c r="C22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>Nota: Datos de superficie en m². (*) Cerrado por falta de titulares. (**) Cerrado pendiente de rehabilitación.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Comercio y Abastecimiento. Ayuntamiento de València.</t>
-        </is>
-      </c>
-      <c r="C24" s="23" t="n"/>
-      <c r="D24" s="24" t="n"/>
-      <c r="E24" s="24" t="n"/>
+      <c r="C22" s="11">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:J3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="80" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja36">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.7109375" customWidth="1" min="1" max="2"/>
-    <col width="17.140625" customWidth="1" style="2" min="3" max="3"/>
+    <col min="1" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>2. Número de puestos en los mercados extraordinarios y días. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="31" t="n"/>
-      <c r="C1" s="12" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="31" t="n"/>
-      <c r="B2" s="31" t="n"/>
-      <c r="C2" s="12" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="19" t="inlineStr">
-        <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="B3" s="19" t="inlineStr">
-        <is>
-          <t>Día</t>
-        </is>
-      </c>
-      <c r="C3" s="15" t="inlineStr">
-        <is>
-          <t>Número de paradas</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="31" t="inlineStr">
-        <is>
-          <t>Russafa</t>
-        </is>
-      </c>
-      <c r="B4" s="31" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="n">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12">
         <v>292</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="32" t="inlineStr">
-        <is>
-          <t>Algirós</t>
-        </is>
-      </c>
-      <c r="B5" s="32" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="C5" s="18" t="n">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="18">
         <v>312</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="31" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>Lunes</t>
-        </is>
-      </c>
-      <c r="C6" s="12" t="n">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12">
         <v>101</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="32" t="inlineStr">
-        <is>
-          <t>Jerusalén</t>
-        </is>
-      </c>
-      <c r="B7" s="32" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
-      </c>
-      <c r="C7" s="18" t="n">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="18">
         <v>390</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="31" t="inlineStr">
-        <is>
-          <t>San Pedro Nolasco</t>
-        </is>
-      </c>
-      <c r="B8" s="31" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
-      </c>
-      <c r="C8" s="12" t="n">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="12">
         <v>277</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="32" t="inlineStr">
-        <is>
-          <t>Natzaret</t>
-        </is>
-      </c>
-      <c r="B9" s="32" t="inlineStr">
-        <is>
-          <t>Martes</t>
-        </is>
-      </c>
-      <c r="C9" s="18" t="n">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="18">
         <v>38</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="31" t="inlineStr">
-        <is>
-          <t>Av. del Cid</t>
-        </is>
-      </c>
-      <c r="B10" s="31" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="C10" s="12" t="n">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12">
         <v>655</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>el Grau</t>
-        </is>
-      </c>
-      <c r="B11" s="32" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="C11" s="18" t="n">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="18">
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="31" t="inlineStr">
-        <is>
-          <t>Benimàmet</t>
-        </is>
-      </c>
-      <c r="B12" s="31" t="inlineStr">
-        <is>
-          <t>Miércoles</t>
-        </is>
-      </c>
-      <c r="C12" s="12" t="n">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12">
         <v>13</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>el Cabanyal</t>
-        </is>
-      </c>
-      <c r="B13" s="32" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="C13" s="18" t="n">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18">
         <v>499</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="31" t="inlineStr">
-        <is>
-          <t>Torrefiel</t>
-        </is>
-      </c>
-      <c r="B14" s="31" t="inlineStr">
-        <is>
-          <t>Jueves</t>
-        </is>
-      </c>
-      <c r="C14" s="12" t="n">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12">
         <v>206</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>Benimaclet</t>
-        </is>
-      </c>
-      <c r="B15" s="32" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="C15" s="18" t="n">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18">
         <v>277</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="31" t="inlineStr">
-        <is>
-          <t>Mont-Olivet</t>
-        </is>
-      </c>
-      <c r="B16" s="31" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="C16" s="12" t="n">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12">
         <v>108</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="32" t="inlineStr">
-        <is>
-          <t>Castellar</t>
-        </is>
-      </c>
-      <c r="B17" s="32" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="C17" s="18" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="18">
         <v>175</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="31" t="inlineStr">
-        <is>
-          <t>la Malva-rosa</t>
-        </is>
-      </c>
-      <c r="B18" s="31" t="inlineStr">
-        <is>
-          <t>Viernes</t>
-        </is>
-      </c>
-      <c r="C18" s="31" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14">
         <v>145</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="32" t="inlineStr">
-        <is>
-          <t>Mossén Sorell</t>
-        </is>
-      </c>
-      <c r="B19" s="32" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="C19" s="18" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="31" t="inlineStr">
-        <is>
-          <t>Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="31" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="C20" s="12" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="12">
         <v>515</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="32" t="inlineStr">
-        <is>
-          <t>Jesús-Patraix</t>
-        </is>
-      </c>
-      <c r="B21" s="32" t="inlineStr">
-        <is>
-          <t>Sábado</t>
-        </is>
-      </c>
-      <c r="C21" s="18" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="18">
         <v>189</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="31" t="inlineStr">
-        <is>
-          <t>Rastro</t>
-        </is>
-      </c>
-      <c r="B22" s="31" t="inlineStr">
-        <is>
-          <t>Domingos y Festivos</t>
-        </is>
-      </c>
-      <c r="C22" s="12" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12">
         <v>254</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="32" t="inlineStr">
-        <is>
-          <t>Plaza Redonda</t>
-        </is>
-      </c>
-      <c r="B23" s="32" t="inlineStr">
-        <is>
-          <t>Domingos y Festivos</t>
-        </is>
-      </c>
-      <c r="C23" s="18" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="18">
         <v>56</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Navidad Reyes-Central </t>
-        </is>
-      </c>
-      <c r="B24" s="31" t="inlineStr">
-        <is>
-          <t>10 de diciembre a 6 de enero</t>
-        </is>
-      </c>
-      <c r="C24" s="30" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="30">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="32" t="inlineStr">
-        <is>
-          <t>Navidad Reyes-Cabanyal</t>
-        </is>
-      </c>
-      <c r="B25" s="32" t="inlineStr">
-        <is>
-          <t>3 a 6 de enero</t>
-        </is>
-      </c>
-      <c r="C25" s="18" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="18">
         <v>136</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paseo Marítimo </t>
-        </is>
-      </c>
-      <c r="B26" s="31" t="inlineStr">
-        <is>
-          <t>1 de junio a 30 de septiembre</t>
-        </is>
-      </c>
-      <c r="C26" s="12" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="12">
         <v>66</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="13" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Comercio y Abastecimiento. Ayuntamiento de València.</t>
-        </is>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>